--- a/SPPSApi/Doc/Template/FS1502_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1502_Export.xlsx
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,11 +126,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,61 +442,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="10.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="10" width="12.125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -512,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/SPPSApi/Doc/Template/FS1502_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1502_Export.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>品目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>包装计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +47,14 @@
   </si>
   <si>
     <t>实行计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大品目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小品目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,79 +440,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
